--- a/Descargas/R15_1º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
+++ b/Descargas/R15_1º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
@@ -237,7 +237,7 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Atentado Contra Jefe De Estado O Autoridad Publica.</t>
+          <t xml:space="preserve">Atentados Y Amenazas Contra La Autoridad. Art. 261Nº 1Y.</t>
         </is>
       </c>
       <c r="B4" s="65">
